--- a/biology/Botanique/Moutarde_des_oiseaux/Moutarde_des_oiseaux.xlsx
+++ b/biology/Botanique/Moutarde_des_oiseaux/Moutarde_des_oiseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brassica rapa L., le Chou champêtre, est une espèce de la famille des Brassicaceae (Crucifères), cultivée comme plante potagère ou fourragère. Il comprend les différents types de navet, certaines raves, la navette oléagineuse et le chou chinois, le  pakchoï et le pe-tsaï[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brassica rapa L., le Chou champêtre, est une espèce de la famille des Brassicaceae (Crucifères), cultivée comme plante potagère ou fourragère. Il comprend les différents types de navet, certaines raves, la navette oléagineuse et le chou chinois, le  pakchoï et le pe-tsaï.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génome de Brassica rapa L. (2n = 20) est en cours de séquençage par le consortium international Brassica rapa Genome Project[5]. La France a été le premier partenaire du consortium à rendre sa contribution utilisable par toute la communauté scientifique[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome de Brassica rapa L. (2n = 20) est en cours de séquençage par le consortium international Brassica rapa Genome Project. La France a été le premier partenaire du consortium à rendre sa contribution utilisable par toute la communauté scientifique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (30 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (30 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Brassica rapa subfo. nagakuba M. Hiroe
 Brassica rapa subfo. youngtungtsai Kitam.
 Brassica rapa subsp. afghanica (Sinskaya) Shebalina
